--- a/data/output/seat_status_updated_classroom_image8.xlsx
+++ b/data/output/seat_status_updated_classroom_image8.xlsx
@@ -507,19 +507,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>190.3910827636719</v>
+        <v>190.3910675048828</v>
       </c>
       <c r="B3" t="n">
         <v>898.545166015625</v>
       </c>
       <c r="C3" t="n">
-        <v>251.6139221191406</v>
+        <v>251.6139068603516</v>
       </c>
       <c r="D3" t="n">
         <v>947.77734375</v>
       </c>
       <c r="E3" t="n">
-        <v>221.0025024414062</v>
+        <v>221.0024871826172</v>
       </c>
       <c r="F3" t="n">
         <v>923.1612548828125</v>
@@ -666,7 +666,7 @@
         <v>584.5311889648438</v>
       </c>
       <c r="D8" t="n">
-        <v>1063.459350585938</v>
+        <v>1063.45947265625</v>
       </c>
       <c r="E8" t="n">
         <v>548.1650390625</v>
@@ -690,13 +690,13 @@
         <v>325.7376708984375</v>
       </c>
       <c r="B9" t="n">
-        <v>934.9869384765625</v>
+        <v>934.9869995117188</v>
       </c>
       <c r="C9" t="n">
-        <v>425.2799987792969</v>
+        <v>425.2800598144531</v>
       </c>
       <c r="D9" t="n">
-        <v>1080.188842773438</v>
+        <v>1080.188720703125</v>
       </c>
       <c r="E9" t="n">
         <v>375.5088500976562</v>
@@ -747,19 +747,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>152.6280670166016</v>
+        <v>152.6280517578125</v>
       </c>
       <c r="B11" t="n">
         <v>929.108642578125</v>
       </c>
       <c r="C11" t="n">
-        <v>282.8152770996094</v>
+        <v>282.8153991699219</v>
       </c>
       <c r="D11" t="n">
         <v>1124.890014648438</v>
       </c>
       <c r="E11" t="n">
-        <v>217.7216796875</v>
+        <v>217.7217254638672</v>
       </c>
       <c r="F11" t="n">
         <v>1026.999267578125</v>
@@ -777,19 +777,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>185.3987121582031</v>
+        <v>185.3985443115234</v>
       </c>
       <c r="B12" t="n">
         <v>986.0900268554688</v>
       </c>
       <c r="C12" t="n">
-        <v>329.2686767578125</v>
+        <v>329.2687072753906</v>
       </c>
       <c r="D12" t="n">
         <v>1131.284545898438</v>
       </c>
       <c r="E12" t="n">
-        <v>257.3336791992188</v>
+        <v>257.3336181640625</v>
       </c>
       <c r="F12" t="n">
         <v>1058.687255859375</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7431125640869141</v>
+        <v>0.74310302734375</v>
       </c>
       <c r="B13" t="n">
         <v>973.3851318359375</v>
       </c>
       <c r="C13" t="n">
-        <v>149.8831787109375</v>
+        <v>149.8831939697266</v>
       </c>
       <c r="D13" t="n">
         <v>1220.8642578125</v>

--- a/data/output/seat_status_updated_classroom_image8.xlsx
+++ b/data/output/seat_status_updated_classroom_image8.xlsx
@@ -477,22 +477,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40.44470596313477</v>
+        <v>40.52850341796875</v>
       </c>
       <c r="B2" t="n">
-        <v>893.1979370117188</v>
+        <v>893.2157592773438</v>
       </c>
       <c r="C2" t="n">
-        <v>111.0293731689453</v>
+        <v>111.0082015991211</v>
       </c>
       <c r="D2" t="n">
-        <v>920.8536987304688</v>
+        <v>920.87890625</v>
       </c>
       <c r="E2" t="n">
-        <v>75.73703765869141</v>
+        <v>75.76835632324219</v>
       </c>
       <c r="F2" t="n">
-        <v>907.0258178710938</v>
+        <v>907.04736328125</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,22 +507,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>190.3910675048828</v>
+        <v>190.3525848388672</v>
       </c>
       <c r="B3" t="n">
-        <v>898.545166015625</v>
+        <v>898.5612182617188</v>
       </c>
       <c r="C3" t="n">
-        <v>251.6139068603516</v>
+        <v>251.5906066894531</v>
       </c>
       <c r="D3" t="n">
-        <v>947.77734375</v>
+        <v>947.701416015625</v>
       </c>
       <c r="E3" t="n">
-        <v>221.0024871826172</v>
+        <v>220.9715881347656</v>
       </c>
       <c r="F3" t="n">
-        <v>923.1612548828125</v>
+        <v>923.13134765625</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,22 +537,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>266.2369384765625</v>
+        <v>266.1713256835938</v>
       </c>
       <c r="B4" t="n">
-        <v>918.8155517578125</v>
+        <v>918.7921142578125</v>
       </c>
       <c r="C4" t="n">
-        <v>328.3106079101562</v>
+        <v>328.3160400390625</v>
       </c>
       <c r="D4" t="n">
-        <v>957.8510131835938</v>
+        <v>957.7531127929688</v>
       </c>
       <c r="E4" t="n">
-        <v>297.2737731933594</v>
+        <v>297.2436828613281</v>
       </c>
       <c r="F4" t="n">
-        <v>938.333251953125</v>
+        <v>938.2725830078125</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,22 +567,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>161.6710052490234</v>
+        <v>161.5902252197266</v>
       </c>
       <c r="B5" t="n">
-        <v>936.1163940429688</v>
+        <v>936.142822265625</v>
       </c>
       <c r="C5" t="n">
-        <v>247.8890380859375</v>
+        <v>247.8957672119141</v>
       </c>
       <c r="D5" t="n">
-        <v>980.3131713867188</v>
+        <v>980.295166015625</v>
       </c>
       <c r="E5" t="n">
-        <v>204.780029296875</v>
+        <v>204.7429962158203</v>
       </c>
       <c r="F5" t="n">
-        <v>958.2147827148438</v>
+        <v>958.218994140625</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -597,22 +597,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>442.8323669433594</v>
+        <v>443.1313171386719</v>
       </c>
       <c r="B6" t="n">
-        <v>922.8341674804688</v>
+        <v>923.1657104492188</v>
       </c>
       <c r="C6" t="n">
-        <v>519.9443969726562</v>
+        <v>519.9130859375</v>
       </c>
       <c r="D6" t="n">
-        <v>1029.171142578125</v>
+        <v>1029.3818359375</v>
       </c>
       <c r="E6" t="n">
-        <v>481.3883666992188</v>
+        <v>481.522216796875</v>
       </c>
       <c r="F6" t="n">
-        <v>976.002685546875</v>
+        <v>976.2738037109375</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,22 +627,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>0.9656357765197754</v>
       </c>
       <c r="B7" t="n">
-        <v>960.4389038085938</v>
+        <v>961.17919921875</v>
       </c>
       <c r="C7" t="n">
-        <v>71.11049652099609</v>
+        <v>70.4219970703125</v>
       </c>
       <c r="D7" t="n">
-        <v>1006.495910644531</v>
+        <v>1008.575744628906</v>
       </c>
       <c r="E7" t="n">
-        <v>35.55524826049805</v>
+        <v>35.69381713867188</v>
       </c>
       <c r="F7" t="n">
-        <v>983.4674072265625</v>
+        <v>984.87744140625</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,22 +657,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>511.7988891601562</v>
+        <v>511.9304504394531</v>
       </c>
       <c r="B8" t="n">
-        <v>927.1575317382812</v>
+        <v>927.283935546875</v>
       </c>
       <c r="C8" t="n">
-        <v>584.5311889648438</v>
+        <v>584.4490966796875</v>
       </c>
       <c r="D8" t="n">
-        <v>1063.45947265625</v>
+        <v>1064.120727539062</v>
       </c>
       <c r="E8" t="n">
-        <v>548.1650390625</v>
+        <v>548.1897583007812</v>
       </c>
       <c r="F8" t="n">
-        <v>995.3084716796875</v>
+        <v>995.7023315429688</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -687,22 +687,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>325.7376708984375</v>
+        <v>325.9519653320312</v>
       </c>
       <c r="B9" t="n">
-        <v>934.9869995117188</v>
+        <v>935.0858154296875</v>
       </c>
       <c r="C9" t="n">
-        <v>425.2800598144531</v>
+        <v>424.635498046875</v>
       </c>
       <c r="D9" t="n">
-        <v>1080.188720703125</v>
+        <v>1080.036865234375</v>
       </c>
       <c r="E9" t="n">
-        <v>375.5088500976562</v>
+        <v>375.2937316894531</v>
       </c>
       <c r="F9" t="n">
-        <v>1007.587890625</v>
+        <v>1007.561340332031</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -717,22 +717,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>816.4525756835938</v>
+        <v>816.5310668945312</v>
       </c>
       <c r="B10" t="n">
-        <v>950.8594970703125</v>
+        <v>951.0562133789062</v>
       </c>
       <c r="C10" t="n">
-        <v>952.0455322265625</v>
+        <v>951.8283081054688</v>
       </c>
       <c r="D10" t="n">
-        <v>1078.601196289062</v>
+        <v>1078.536376953125</v>
       </c>
       <c r="E10" t="n">
-        <v>884.2490234375</v>
+        <v>884.1796875</v>
       </c>
       <c r="F10" t="n">
-        <v>1014.730346679688</v>
+        <v>1014.796264648438</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -747,22 +747,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>152.6280517578125</v>
+        <v>152.5664520263672</v>
       </c>
       <c r="B11" t="n">
-        <v>929.108642578125</v>
+        <v>929.2582397460938</v>
       </c>
       <c r="C11" t="n">
-        <v>282.8153991699219</v>
+        <v>283.2648315429688</v>
       </c>
       <c r="D11" t="n">
-        <v>1124.890014648438</v>
+        <v>1124.971435546875</v>
       </c>
       <c r="E11" t="n">
-        <v>217.7217254638672</v>
+        <v>217.9156494140625</v>
       </c>
       <c r="F11" t="n">
-        <v>1026.999267578125</v>
+        <v>1027.114868164062</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -777,22 +777,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>185.3985443115234</v>
+        <v>183.1814575195312</v>
       </c>
       <c r="B12" t="n">
-        <v>986.0900268554688</v>
+        <v>986.2005004882812</v>
       </c>
       <c r="C12" t="n">
-        <v>329.2687072753906</v>
+        <v>329.4461059570312</v>
       </c>
       <c r="D12" t="n">
-        <v>1131.284545898438</v>
+        <v>1131.298583984375</v>
       </c>
       <c r="E12" t="n">
-        <v>257.3336181640625</v>
+        <v>256.3137817382812</v>
       </c>
       <c r="F12" t="n">
-        <v>1058.687255859375</v>
+        <v>1058.74951171875</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -807,22 +807,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.74310302734375</v>
+        <v>0.717778205871582</v>
       </c>
       <c r="B13" t="n">
-        <v>973.3851318359375</v>
+        <v>974.5150756835938</v>
       </c>
       <c r="C13" t="n">
-        <v>149.8831939697266</v>
+        <v>149.9222564697266</v>
       </c>
       <c r="D13" t="n">
-        <v>1220.8642578125</v>
+        <v>1220.811645507812</v>
       </c>
       <c r="E13" t="n">
-        <v>75.31314849853516</v>
+        <v>75.32001495361328</v>
       </c>
       <c r="F13" t="n">
-        <v>1097.124755859375</v>
+        <v>1097.663330078125</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
